--- a/b.xlsx
+++ b/b.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scdc\Desktop\workspace\seg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320" tabRatio="715" firstSheet="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320" tabRatio="715" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1º SUBSOLO" sheetId="41" r:id="rId1"/>
@@ -28,7 +33,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Térreo!$A$1:$C$45</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2734,7 +2739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2769,7 +2774,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2983,8 +2988,8 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3388,7 +3393,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3840,7 +3845,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4313,7 +4318,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4801,7 +4806,7 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -5141,7 +5146,7 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -5484,7 +5489,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -5970,7 +5975,7 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -6586,7 +6591,7 @@
   </sheetPr>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -6960,8 +6965,8 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7487,7 +7492,7 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -7941,7 +7946,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -8395,7 +8400,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -8805,7 +8810,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -9235,7 +9240,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -9671,7 +9676,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
